--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value77.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value77.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.460931455051748</v>
+        <v>3.887692451477051</v>
       </c>
       <c r="B1">
-        <v>1.719635553777116</v>
+        <v>5.216575622558594</v>
       </c>
       <c r="C1">
-        <v>1.642078091381662</v>
+        <v>6.87560510635376</v>
       </c>
       <c r="D1">
-        <v>2.120296527932918</v>
+        <v>10.51999282836914</v>
       </c>
       <c r="E1">
-        <v>2.907076495066066</v>
+        <v>5.36678409576416</v>
       </c>
     </row>
   </sheetData>
